--- a/raw_data/KEEN ONE/Byrnes/2015/Little Brewster 2015/LittleBrewster_siteinfo_2015.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2015/Little Brewster 2015/LittleBrewster_siteinfo_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="22660" windowHeight="13700"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Transect 2</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>BHI</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -148,8 +157,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,7 +245,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -269,6 +280,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -303,6 +315,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,23 +713,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="5" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="14" customHeight="1">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="14" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -729,38 +743,47 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -773,38 +796,47 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="5">
         <v>42200</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>42.327220877632499</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>-70.891565205529304</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>42.3268872778862</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>-70.891230180859495</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="3">
         <v>6.7</v>
       </c>
-      <c r="K2" s="3">
+      <c r="N2" s="3">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -817,38 +849,47 @@
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="5">
         <v>42199</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>42.327046534046502</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>-70.890863891690898</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>42.326910579577003</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>-70.890358127653599</v>
       </c>
-      <c r="J3" s="3">
+      <c r="M3" s="3">
         <v>5.8</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>6.1</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="P3" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -861,38 +902,47 @@
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="5">
         <v>42199</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>42.327349958941298</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>-70.889759995043207</v>
       </c>
-      <c r="H4" s="3">
+      <c r="K4" s="3">
         <v>42.327455999999998</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>-70.889280999999997</v>
       </c>
-      <c r="J4" s="3">
+      <c r="M4" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>7.2</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="P4" s="6">
         <v>18.3</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="15">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="15">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -905,68 +955,77 @@
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="5">
         <v>42200</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>42.327804258093202</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-70.888739917427301</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>42.3275044374167</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>-70.889009730890393</v>
       </c>
-      <c r="J5" s="7">
+      <c r="M5" s="7">
         <v>6.1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="N5" s="7">
         <v>5.5</v>
       </c>
-      <c r="L5" s="7">
+      <c r="O5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="8">
+      <c r="P5" s="8">
         <v>17</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2">
@@ -1005,7 +1064,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:J1048576">
       <formula1>" IN 20, IN 40, OFF 40, OFF 20"</formula1>
     </dataValidation>
   </dataValidations>

--- a/raw_data/KEEN ONE/Byrnes/2015/Little Brewster 2015/LittleBrewster_siteinfo_2015.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2015/Little Brewster 2015/LittleBrewster_siteinfo_2015.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="22660" windowHeight="13700"/>
+    <workbookView xWindow="7840" yWindow="7540" windowWidth="22660" windowHeight="13700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
+    <sheet name="Changelog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Entry'!#REF!</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Transect 2</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Little Brewster 2 and 3 day change from 14 to 17 - transcription error</t>
   </si>
 </sst>
 </file>
@@ -715,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -853,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4">
         <v>2015</v>
@@ -906,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4">
         <v>2015</v>
@@ -1076,4 +1083,37 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
+        <v>43353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>